--- a/docs/Bundles.xlsx
+++ b/docs/Bundles.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>rooms</t>
   </si>
@@ -30,7 +30,25 @@
     <t>name</t>
   </si>
   <si>
-    <t>building</t>
+    <t>id</t>
+  </si>
+  <si>
+    <t>[1,2]</t>
+  </si>
+  <si>
+    <t>[3]</t>
+  </si>
+  <si>
+    <t>[4,5,6]</t>
+  </si>
+  <si>
+    <t>3C</t>
+  </si>
+  <si>
+    <t>2H</t>
+  </si>
+  <si>
+    <t>4G</t>
   </si>
 </sst>
 </file>
@@ -382,10 +400,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -395,16 +413,58 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>3</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>4</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
